--- a/data/pca/factorExposure/factorExposure_2012-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-02.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01694596716163971</v>
+        <v>-0.01678149093120803</v>
       </c>
       <c r="C2">
-        <v>-0.03434008763999341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02745335617957494</v>
+      </c>
+      <c r="D2">
+        <v>0.0007393450207288009</v>
+      </c>
+      <c r="E2">
+        <v>0.010747489144002</v>
+      </c>
+      <c r="F2">
+        <v>-0.01023960405702502</v>
+      </c>
+      <c r="G2">
+        <v>-0.002670234611455306</v>
+      </c>
+      <c r="H2">
+        <v>-0.04545012596067549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0759044938987611</v>
+        <v>-0.08419601500583003</v>
       </c>
       <c r="C4">
-        <v>-0.05683883284027648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03689338000364258</v>
+      </c>
+      <c r="D4">
+        <v>0.06969872290588833</v>
+      </c>
+      <c r="E4">
+        <v>0.0009741228245985519</v>
+      </c>
+      <c r="F4">
+        <v>-0.03012026208469571</v>
+      </c>
+      <c r="G4">
+        <v>-0.0007249219820877266</v>
+      </c>
+      <c r="H4">
+        <v>0.03803721752743781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1063541708871181</v>
+        <v>-0.1195363671784166</v>
       </c>
       <c r="C6">
-        <v>-0.05620416175151337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03464916343237573</v>
+      </c>
+      <c r="D6">
+        <v>0.009728359778782267</v>
+      </c>
+      <c r="E6">
+        <v>-0.002036339014738072</v>
+      </c>
+      <c r="F6">
+        <v>-0.05908052352959067</v>
+      </c>
+      <c r="G6">
+        <v>-0.01723715041712636</v>
+      </c>
+      <c r="H6">
+        <v>-0.06883926220529457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04957174257237366</v>
+        <v>-0.06082739763760714</v>
       </c>
       <c r="C7">
-        <v>-0.02748711314988093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01865524321591903</v>
+      </c>
+      <c r="D7">
+        <v>0.04282587982316526</v>
+      </c>
+      <c r="E7">
+        <v>0.02345904664163706</v>
+      </c>
+      <c r="F7">
+        <v>-0.03724584313793977</v>
+      </c>
+      <c r="G7">
+        <v>0.03635747847497853</v>
+      </c>
+      <c r="H7">
+        <v>0.0199675311896574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03686356604021337</v>
+        <v>-0.03897011667964999</v>
       </c>
       <c r="C8">
-        <v>-0.01220815130319059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.004126244078825705</v>
+      </c>
+      <c r="D8">
+        <v>0.03272598141226129</v>
+      </c>
+      <c r="E8">
+        <v>0.01205649721500934</v>
+      </c>
+      <c r="F8">
+        <v>-0.04439340500861673</v>
+      </c>
+      <c r="G8">
+        <v>-0.03423490986726374</v>
+      </c>
+      <c r="H8">
+        <v>-0.007536307120521838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0682679966151187</v>
+        <v>-0.07601503680354101</v>
       </c>
       <c r="C9">
-        <v>-0.04673195434237801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02804869850644699</v>
+      </c>
+      <c r="D9">
+        <v>0.06471086196957609</v>
+      </c>
+      <c r="E9">
+        <v>0.01985920250187989</v>
+      </c>
+      <c r="F9">
+        <v>-0.03875635419865835</v>
+      </c>
+      <c r="G9">
+        <v>-0.004776083896284066</v>
+      </c>
+      <c r="H9">
+        <v>0.05329452473102866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02955888537767739</v>
+        <v>-0.03666325080472256</v>
       </c>
       <c r="C10">
-        <v>-0.03531212841758678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04299465710669655</v>
+      </c>
+      <c r="D10">
+        <v>-0.1706503300190214</v>
+      </c>
+      <c r="E10">
+        <v>0.04659950879262584</v>
+      </c>
+      <c r="F10">
+        <v>-0.04394195781421057</v>
+      </c>
+      <c r="G10">
+        <v>0.0397811947009023</v>
+      </c>
+      <c r="H10">
+        <v>-0.04100891206892861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07030545376629981</v>
+        <v>-0.07490761577067355</v>
       </c>
       <c r="C11">
-        <v>-0.04790748302671576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0273481552533183</v>
+      </c>
+      <c r="D11">
+        <v>0.06363616155013724</v>
+      </c>
+      <c r="E11">
+        <v>-0.01328640623330581</v>
+      </c>
+      <c r="F11">
+        <v>-0.02499452146166237</v>
+      </c>
+      <c r="G11">
+        <v>0.004418313001355157</v>
+      </c>
+      <c r="H11">
+        <v>0.08749939133002757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05714221545818737</v>
+        <v>-0.06393277224236156</v>
       </c>
       <c r="C12">
-        <v>-0.05130623795072134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03507966621598219</v>
+      </c>
+      <c r="D12">
+        <v>0.04881364574157874</v>
+      </c>
+      <c r="E12">
+        <v>0.007875885869013494</v>
+      </c>
+      <c r="F12">
+        <v>-0.01975889757161743</v>
+      </c>
+      <c r="G12">
+        <v>-0.002127423480883653</v>
+      </c>
+      <c r="H12">
+        <v>0.05332876471885838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06191821227304937</v>
+        <v>-0.06444468494417281</v>
       </c>
       <c r="C13">
-        <v>-0.04391450399715217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02579637539525018</v>
+      </c>
+      <c r="D13">
+        <v>0.04022918369275364</v>
+      </c>
+      <c r="E13">
+        <v>0.001718946645729777</v>
+      </c>
+      <c r="F13">
+        <v>-0.002497979821682168</v>
+      </c>
+      <c r="G13">
+        <v>-0.0004137149342871905</v>
+      </c>
+      <c r="H13">
+        <v>0.05479749062178229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03129157664262289</v>
+        <v>-0.0401918275165376</v>
       </c>
       <c r="C14">
-        <v>-0.03043330107004665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0263019624738835</v>
+      </c>
+      <c r="D14">
+        <v>0.006714409241503135</v>
+      </c>
+      <c r="E14">
+        <v>0.02240868410696999</v>
+      </c>
+      <c r="F14">
+        <v>-0.01785287045272897</v>
+      </c>
+      <c r="G14">
+        <v>-0.01527689164821547</v>
+      </c>
+      <c r="H14">
+        <v>0.05831223688240838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0391486085632486</v>
+        <v>-0.03982619891770608</v>
       </c>
       <c r="C15">
-        <v>-0.01237836183107837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004172068247758082</v>
+      </c>
+      <c r="D15">
+        <v>0.005532455077802863</v>
+      </c>
+      <c r="E15">
+        <v>0.04252788316579405</v>
+      </c>
+      <c r="F15">
+        <v>-0.001335456288240614</v>
+      </c>
+      <c r="G15">
+        <v>-0.02904930631251079</v>
+      </c>
+      <c r="H15">
+        <v>0.04711261867795158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05955620851483961</v>
+        <v>-0.06688178099091459</v>
       </c>
       <c r="C16">
-        <v>-0.0424709319318871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02710594607855162</v>
+      </c>
+      <c r="D16">
+        <v>0.06281248272138065</v>
+      </c>
+      <c r="E16">
+        <v>-0.000322845558162183</v>
+      </c>
+      <c r="F16">
+        <v>-0.02407490958919248</v>
+      </c>
+      <c r="G16">
+        <v>0.001957120107474124</v>
+      </c>
+      <c r="H16">
+        <v>0.05367742960702218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06469828081104498</v>
+        <v>-0.06378839811990611</v>
       </c>
       <c r="C20">
-        <v>-0.03298565195093669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01311771818912655</v>
+      </c>
+      <c r="D20">
+        <v>0.04923706162699795</v>
+      </c>
+      <c r="E20">
+        <v>0.01798751308644212</v>
+      </c>
+      <c r="F20">
+        <v>-0.02301912050147972</v>
+      </c>
+      <c r="G20">
+        <v>-0.002104948537873596</v>
+      </c>
+      <c r="H20">
+        <v>0.05311757438475949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02366023717177825</v>
+        <v>-0.02434548940178958</v>
       </c>
       <c r="C21">
-        <v>0.003861165535222832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01124515862787472</v>
+      </c>
+      <c r="D21">
+        <v>0.03456513101562536</v>
+      </c>
+      <c r="E21">
+        <v>0.07830950736686415</v>
+      </c>
+      <c r="F21">
+        <v>0.01335278638438013</v>
+      </c>
+      <c r="G21">
+        <v>-0.009563814146839277</v>
+      </c>
+      <c r="H21">
+        <v>-0.04120654479925608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07305352241483078</v>
+        <v>-0.06480453021874634</v>
       </c>
       <c r="C22">
-        <v>-0.0614601357264907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03327289050523598</v>
+      </c>
+      <c r="D22">
+        <v>0.104945309970813</v>
+      </c>
+      <c r="E22">
+        <v>0.6148568361081119</v>
+      </c>
+      <c r="F22">
+        <v>0.123378772809402</v>
+      </c>
+      <c r="G22">
+        <v>0.01744069312523083</v>
+      </c>
+      <c r="H22">
+        <v>-0.1434542049921556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07403122912496804</v>
+        <v>-0.06535665864351672</v>
       </c>
       <c r="C23">
-        <v>-0.06042006019769467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0320097365266779</v>
+      </c>
+      <c r="D23">
+        <v>0.1056612770195019</v>
+      </c>
+      <c r="E23">
+        <v>0.6139455542592549</v>
+      </c>
+      <c r="F23">
+        <v>0.1225045426328532</v>
+      </c>
+      <c r="G23">
+        <v>0.01576368293981207</v>
+      </c>
+      <c r="H23">
+        <v>-0.1387213015969965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06883967131757386</v>
+        <v>-0.07702792895743639</v>
       </c>
       <c r="C24">
-        <v>-0.051594974727528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03308171506469789</v>
+      </c>
+      <c r="D24">
+        <v>0.06143214739126242</v>
+      </c>
+      <c r="E24">
+        <v>0.00756919064371293</v>
+      </c>
+      <c r="F24">
+        <v>-0.03382297226440064</v>
+      </c>
+      <c r="G24">
+        <v>-0.007098309810398858</v>
+      </c>
+      <c r="H24">
+        <v>0.06382635436912625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06975926657234603</v>
+        <v>-0.07518220108344377</v>
       </c>
       <c r="C25">
-        <v>-0.05765608811691825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03783006751282986</v>
+      </c>
+      <c r="D25">
+        <v>0.05619147052016669</v>
+      </c>
+      <c r="E25">
+        <v>0.009301214435733616</v>
+      </c>
+      <c r="F25">
+        <v>-0.02813826209930422</v>
+      </c>
+      <c r="G25">
+        <v>-0.01992277997575871</v>
+      </c>
+      <c r="H25">
+        <v>0.06729151547611693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04244595028482936</v>
+        <v>-0.04636590028348726</v>
       </c>
       <c r="C26">
-        <v>-0.008988834087093882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001045359631241054</v>
+      </c>
+      <c r="D26">
+        <v>0.02600409776273144</v>
+      </c>
+      <c r="E26">
+        <v>0.04020731842175446</v>
+      </c>
+      <c r="F26">
+        <v>-0.02450973127447511</v>
+      </c>
+      <c r="G26">
+        <v>0.000797766346871159</v>
+      </c>
+      <c r="H26">
+        <v>0.06171013053964568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05818743309055437</v>
+        <v>-0.07282733449640846</v>
       </c>
       <c r="C28">
-        <v>-0.07910410862342991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08898598831895972</v>
+      </c>
+      <c r="D28">
+        <v>-0.3120127500605566</v>
+      </c>
+      <c r="E28">
+        <v>0.03882911897843455</v>
+      </c>
+      <c r="F28">
+        <v>-0.05728934395686936</v>
+      </c>
+      <c r="G28">
+        <v>-0.02902340867565953</v>
+      </c>
+      <c r="H28">
+        <v>-0.013940075938919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04053628199545596</v>
+        <v>-0.04717620163795785</v>
       </c>
       <c r="C29">
-        <v>-0.03099334420459243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02412611568248345</v>
+      </c>
+      <c r="D29">
+        <v>0.007158374665265597</v>
+      </c>
+      <c r="E29">
+        <v>0.04658626376747835</v>
+      </c>
+      <c r="F29">
+        <v>-0.008331292352277732</v>
+      </c>
+      <c r="G29">
+        <v>0.0003831214515225704</v>
+      </c>
+      <c r="H29">
+        <v>0.08830691660968147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1233066900294003</v>
+        <v>-0.1314834892129843</v>
       </c>
       <c r="C30">
-        <v>-0.09315398988440755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.05742203353172948</v>
+      </c>
+      <c r="D30">
+        <v>0.08796054798196092</v>
+      </c>
+      <c r="E30">
+        <v>0.03977877211928656</v>
+      </c>
+      <c r="F30">
+        <v>-0.006505640087648394</v>
+      </c>
+      <c r="G30">
+        <v>-0.03930307580147579</v>
+      </c>
+      <c r="H30">
+        <v>-0.03170166491501993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04084129501950649</v>
+        <v>-0.04573686277505864</v>
       </c>
       <c r="C31">
-        <v>-0.01938963322064165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01035834343813883</v>
+      </c>
+      <c r="D31">
+        <v>0.02498493950328184</v>
+      </c>
+      <c r="E31">
+        <v>0.02396528540933613</v>
+      </c>
+      <c r="F31">
+        <v>-0.0138275162352175</v>
+      </c>
+      <c r="G31">
+        <v>0.01646167282938717</v>
+      </c>
+      <c r="H31">
+        <v>0.07514071556362617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03513212448358373</v>
+        <v>-0.03763861134415394</v>
       </c>
       <c r="C32">
-        <v>-0.02417478729483519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01706701879824807</v>
+      </c>
+      <c r="D32">
+        <v>0.01664128614520149</v>
+      </c>
+      <c r="E32">
+        <v>0.07384404459778185</v>
+      </c>
+      <c r="F32">
+        <v>-0.00225049802885134</v>
+      </c>
+      <c r="G32">
+        <v>-0.03453423184504394</v>
+      </c>
+      <c r="H32">
+        <v>0.0434966453870705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07990733270259161</v>
+        <v>-0.09502981498227343</v>
       </c>
       <c r="C33">
-        <v>-0.04409594375938974</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02688819461887524</v>
+      </c>
+      <c r="D33">
+        <v>0.05665512399467923</v>
+      </c>
+      <c r="E33">
+        <v>0.01623467326249942</v>
+      </c>
+      <c r="F33">
+        <v>-0.007913542886512468</v>
+      </c>
+      <c r="G33">
+        <v>0.01125106355754077</v>
+      </c>
+      <c r="H33">
+        <v>0.07055547215960661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0552986402806196</v>
+        <v>-0.05881249945990696</v>
       </c>
       <c r="C34">
-        <v>-0.02907370149658544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01287719931084771</v>
+      </c>
+      <c r="D34">
+        <v>0.05577840024298338</v>
+      </c>
+      <c r="E34">
+        <v>0.001257322532273478</v>
+      </c>
+      <c r="F34">
+        <v>-0.01588571321773609</v>
+      </c>
+      <c r="G34">
+        <v>-0.007431587110513297</v>
+      </c>
+      <c r="H34">
+        <v>0.05152686107606815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03709702618728684</v>
+        <v>-0.04118302782570381</v>
       </c>
       <c r="C35">
-        <v>-0.01046490319754624</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003313516573354503</v>
+      </c>
+      <c r="D35">
+        <v>0.00917937339914204</v>
+      </c>
+      <c r="E35">
+        <v>0.02270173491409242</v>
+      </c>
+      <c r="F35">
+        <v>0.00615225998659065</v>
+      </c>
+      <c r="G35">
+        <v>0.009889217138115152</v>
+      </c>
+      <c r="H35">
+        <v>0.03618083960604568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01932228493740444</v>
+        <v>-0.02609314785313499</v>
       </c>
       <c r="C36">
-        <v>-0.0170223436368589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01320506733751359</v>
+      </c>
+      <c r="D36">
+        <v>0.01752478219330979</v>
+      </c>
+      <c r="E36">
+        <v>0.03887550978062163</v>
+      </c>
+      <c r="F36">
+        <v>-0.01849725096007388</v>
+      </c>
+      <c r="G36">
+        <v>0.008003419621579851</v>
+      </c>
+      <c r="H36">
+        <v>0.0522252240334983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03900408317903543</v>
+        <v>-0.04318389042130307</v>
       </c>
       <c r="C38">
-        <v>-0.004695632389326591</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001684149354741294</v>
+      </c>
+      <c r="D38">
+        <v>0.01828465040247204</v>
+      </c>
+      <c r="E38">
+        <v>0.06023439904345246</v>
+      </c>
+      <c r="F38">
+        <v>0.007108979855909068</v>
+      </c>
+      <c r="G38">
+        <v>-0.02220300388717202</v>
+      </c>
+      <c r="H38">
+        <v>0.02348162294704311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09199446965869736</v>
+        <v>-0.1028982305759525</v>
       </c>
       <c r="C39">
-        <v>-0.07415279949432625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04885421382649283</v>
+      </c>
+      <c r="D39">
+        <v>0.07373829742705217</v>
+      </c>
+      <c r="E39">
+        <v>-0.01610589377992843</v>
+      </c>
+      <c r="F39">
+        <v>-0.01097973459469757</v>
+      </c>
+      <c r="G39">
+        <v>-0.02530488950296229</v>
+      </c>
+      <c r="H39">
+        <v>0.05420669170221119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07346785058269914</v>
+        <v>-0.07148696625139334</v>
       </c>
       <c r="C40">
-        <v>-0.04541917217144385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.02334214979014564</v>
+      </c>
+      <c r="D40">
+        <v>0.004993485627645625</v>
+      </c>
+      <c r="E40">
+        <v>0.01569588790071091</v>
+      </c>
+      <c r="F40">
+        <v>0.05038036971949976</v>
+      </c>
+      <c r="G40">
+        <v>-0.05776597286406571</v>
+      </c>
+      <c r="H40">
+        <v>-0.08285674377317473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0399345810970957</v>
+        <v>-0.04289649373949848</v>
       </c>
       <c r="C41">
-        <v>-0.006768085761867797</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.000917332609702676</v>
+      </c>
+      <c r="D41">
+        <v>0.03817501696630883</v>
+      </c>
+      <c r="E41">
+        <v>0.007339418223607522</v>
+      </c>
+      <c r="F41">
+        <v>0.01182535392589731</v>
+      </c>
+      <c r="G41">
+        <v>-0.01373361940528993</v>
+      </c>
+      <c r="H41">
+        <v>0.03172918344849157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04546442370662713</v>
+        <v>-0.05417442849433622</v>
       </c>
       <c r="C43">
-        <v>-0.025862983268522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01650123803596355</v>
+      </c>
+      <c r="D43">
+        <v>0.02714470884749479</v>
+      </c>
+      <c r="E43">
+        <v>0.01614065763374791</v>
+      </c>
+      <c r="F43">
+        <v>-0.008532017701209238</v>
+      </c>
+      <c r="G43">
+        <v>0.006006573505326598</v>
+      </c>
+      <c r="H43">
+        <v>0.04762054046285294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0929509216797632</v>
+        <v>-0.08943519698599948</v>
       </c>
       <c r="C44">
-        <v>-0.0971302875636807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06384906137630832</v>
+      </c>
+      <c r="D44">
+        <v>0.06910903143317086</v>
+      </c>
+      <c r="E44">
+        <v>0.08158400455501867</v>
+      </c>
+      <c r="F44">
+        <v>-0.04587974896009971</v>
+      </c>
+      <c r="G44">
+        <v>-0.02727714324035897</v>
+      </c>
+      <c r="H44">
+        <v>-0.004856248152291906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02432869433860882</v>
+        <v>-0.0315564036216637</v>
       </c>
       <c r="C46">
-        <v>-0.01334719921177632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009242253325197555</v>
+      </c>
+      <c r="D46">
+        <v>0.03410482896778072</v>
+      </c>
+      <c r="E46">
+        <v>0.02007957684929132</v>
+      </c>
+      <c r="F46">
+        <v>-0.01969299623980098</v>
+      </c>
+      <c r="G46">
+        <v>-0.0056109253679209</v>
+      </c>
+      <c r="H46">
+        <v>0.03695215353594394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02659734788152567</v>
+        <v>-0.03428119996116006</v>
       </c>
       <c r="C47">
-        <v>-0.02629455980690883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01992103434508961</v>
+      </c>
+      <c r="D47">
+        <v>0.0200430100042041</v>
+      </c>
+      <c r="E47">
+        <v>0.04902350994216221</v>
+      </c>
+      <c r="F47">
+        <v>-0.01528837876284953</v>
+      </c>
+      <c r="G47">
+        <v>0.03734619725566184</v>
+      </c>
+      <c r="H47">
+        <v>0.02972192146730733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03106721851412491</v>
+        <v>-0.0361166989352706</v>
       </c>
       <c r="C48">
-        <v>-0.01763286615147689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009605163956734008</v>
+      </c>
+      <c r="D48">
+        <v>0.02707618676874088</v>
+      </c>
+      <c r="E48">
+        <v>0.04230206881995204</v>
+      </c>
+      <c r="F48">
+        <v>-0.006658955726594846</v>
+      </c>
+      <c r="G48">
+        <v>-0.01416790447277854</v>
+      </c>
+      <c r="H48">
+        <v>0.05727108427990982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1631980594485499</v>
+        <v>-0.1903508050184987</v>
       </c>
       <c r="C49">
-        <v>-0.06965369499044871</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03993368396412424</v>
+      </c>
+      <c r="D49">
+        <v>0.01993597576605834</v>
+      </c>
+      <c r="E49">
+        <v>-0.1304519148211807</v>
+      </c>
+      <c r="F49">
+        <v>-0.04334457582569503</v>
+      </c>
+      <c r="G49">
+        <v>0.07098055212884652</v>
+      </c>
+      <c r="H49">
+        <v>-0.2299460365236817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.037459444435653</v>
+        <v>-0.04452357692724991</v>
       </c>
       <c r="C50">
-        <v>-0.023033628187163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01583553302134269</v>
+      </c>
+      <c r="D50">
+        <v>0.03636249047035589</v>
+      </c>
+      <c r="E50">
+        <v>0.04824187849842414</v>
+      </c>
+      <c r="F50">
+        <v>-0.02259946914665808</v>
+      </c>
+      <c r="G50">
+        <v>0.01084875385866046</v>
+      </c>
+      <c r="H50">
+        <v>0.0717407443862967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.025595402689818</v>
+        <v>-0.02698375864369732</v>
       </c>
       <c r="C51">
-        <v>-0.01060201787078515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.005858818913105649</v>
+      </c>
+      <c r="D51">
+        <v>0.02172030906289516</v>
+      </c>
+      <c r="E51">
+        <v>0.01543272885947231</v>
+      </c>
+      <c r="F51">
+        <v>-0.009687516911252834</v>
+      </c>
+      <c r="G51">
+        <v>-0.002986302920649791</v>
+      </c>
+      <c r="H51">
+        <v>-0.003572152317221077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1478466812362271</v>
+        <v>-0.1613912392513258</v>
       </c>
       <c r="C53">
-        <v>-0.08040202323862851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0526337436613703</v>
+      </c>
+      <c r="D53">
+        <v>0.02094923657465804</v>
+      </c>
+      <c r="E53">
+        <v>-0.03520072117338545</v>
+      </c>
+      <c r="F53">
+        <v>-0.01478196276545829</v>
+      </c>
+      <c r="G53">
+        <v>-0.003023334246013503</v>
+      </c>
+      <c r="H53">
+        <v>0.1560669740906908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0538542560427241</v>
+        <v>-0.05591677983384237</v>
       </c>
       <c r="C54">
-        <v>-0.02507675333254332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01238709898034804</v>
+      </c>
+      <c r="D54">
+        <v>0.02210867007719481</v>
+      </c>
+      <c r="E54">
+        <v>0.04785007169695756</v>
+      </c>
+      <c r="F54">
+        <v>-0.01224822088942439</v>
+      </c>
+      <c r="G54">
+        <v>-0.01798435079868979</v>
+      </c>
+      <c r="H54">
+        <v>0.06077768620245851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09782736696430964</v>
+        <v>-0.1015511167098431</v>
       </c>
       <c r="C55">
-        <v>-0.05715709499417007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03615046769149024</v>
+      </c>
+      <c r="D55">
+        <v>0.02768968075570082</v>
+      </c>
+      <c r="E55">
+        <v>0.009380295155494914</v>
+      </c>
+      <c r="F55">
+        <v>-0.01763589465273804</v>
+      </c>
+      <c r="G55">
+        <v>-0.01310774538918293</v>
+      </c>
+      <c r="H55">
+        <v>0.1456172419518928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1463100861230555</v>
+        <v>-0.1611222630369906</v>
       </c>
       <c r="C56">
-        <v>-0.09533344587226757</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06520993899014978</v>
+      </c>
+      <c r="D56">
+        <v>0.02038972293245903</v>
+      </c>
+      <c r="E56">
+        <v>-0.0360589295509461</v>
+      </c>
+      <c r="F56">
+        <v>-0.03348688469917861</v>
+      </c>
+      <c r="G56">
+        <v>0.006693450105584656</v>
+      </c>
+      <c r="H56">
+        <v>0.162355504231032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1186080844245613</v>
+        <v>-0.09587118085401589</v>
       </c>
       <c r="C58">
-        <v>-0.005316215303399661</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03531538196310203</v>
+      </c>
+      <c r="D58">
+        <v>0.05166808616571645</v>
+      </c>
+      <c r="E58">
+        <v>0.1668168551854616</v>
+      </c>
+      <c r="F58">
+        <v>-0.01978963881647276</v>
+      </c>
+      <c r="G58">
+        <v>0.05873928714024934</v>
+      </c>
+      <c r="H58">
+        <v>-0.1658525252519578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1173212924080233</v>
+        <v>-0.143483830982774</v>
       </c>
       <c r="C59">
-        <v>-0.08043640978716528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08937968651441536</v>
+      </c>
+      <c r="D59">
+        <v>-0.3596575583480296</v>
+      </c>
+      <c r="E59">
+        <v>0.05188901032546435</v>
+      </c>
+      <c r="F59">
+        <v>-0.008100339151205348</v>
+      </c>
+      <c r="G59">
+        <v>0.03851723069249072</v>
+      </c>
+      <c r="H59">
+        <v>-0.001836367103344574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1994040639256289</v>
+        <v>-0.2273199969529691</v>
       </c>
       <c r="C60">
-        <v>-0.1057727428197164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06924323417768799</v>
+      </c>
+      <c r="D60">
+        <v>0.02748436294260391</v>
+      </c>
+      <c r="E60">
+        <v>-0.07277454859864142</v>
+      </c>
+      <c r="F60">
+        <v>-0.04794131855274156</v>
+      </c>
+      <c r="G60">
+        <v>-0.01553035425478639</v>
+      </c>
+      <c r="H60">
+        <v>-0.1578376128286424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.078249199576076</v>
+        <v>-0.08685315999074052</v>
       </c>
       <c r="C61">
-        <v>-0.05126008287265792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03308944068172216</v>
+      </c>
+      <c r="D61">
+        <v>0.05209557102271684</v>
+      </c>
+      <c r="E61">
+        <v>-0.01385279518946052</v>
+      </c>
+      <c r="F61">
+        <v>-0.007911403065253774</v>
+      </c>
+      <c r="G61">
+        <v>0.005235421753067418</v>
+      </c>
+      <c r="H61">
+        <v>0.06752098792780502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1262790036568741</v>
+        <v>-0.1392761630959087</v>
       </c>
       <c r="C62">
-        <v>-0.07047561451648156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04496150056077184</v>
+      </c>
+      <c r="D62">
+        <v>0.02689271978443509</v>
+      </c>
+      <c r="E62">
+        <v>-0.05642204311044281</v>
+      </c>
+      <c r="F62">
+        <v>-0.0086078567687336</v>
+      </c>
+      <c r="G62">
+        <v>-0.03611932249057762</v>
+      </c>
+      <c r="H62">
+        <v>0.1587604994111561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05351262028701877</v>
+        <v>-0.05203578647521485</v>
       </c>
       <c r="C63">
-        <v>-0.02841758165630328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01419659842192135</v>
+      </c>
+      <c r="D63">
+        <v>0.02561047009173676</v>
+      </c>
+      <c r="E63">
+        <v>0.05008493276847345</v>
+      </c>
+      <c r="F63">
+        <v>-0.004221514716428165</v>
+      </c>
+      <c r="G63">
+        <v>-0.04067004950476906</v>
+      </c>
+      <c r="H63">
+        <v>0.07508051138818173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1103776982951286</v>
+        <v>-0.1126283296225096</v>
       </c>
       <c r="C64">
-        <v>-0.028208729048153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.003592370110633197</v>
+      </c>
+      <c r="D64">
+        <v>0.04312762265133307</v>
+      </c>
+      <c r="E64">
+        <v>0.02651414869106308</v>
+      </c>
+      <c r="F64">
+        <v>-0.05164004321606865</v>
+      </c>
+      <c r="G64">
+        <v>-0.03618621710066287</v>
+      </c>
+      <c r="H64">
+        <v>0.07463405084077727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1200944188858181</v>
+        <v>-0.1275999402367185</v>
       </c>
       <c r="C65">
-        <v>-0.05921675044780658</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03582450457650859</v>
+      </c>
+      <c r="D65">
+        <v>0.003643553094330244</v>
+      </c>
+      <c r="E65">
+        <v>0.00111113038768361</v>
+      </c>
+      <c r="F65">
+        <v>-0.06623568127738839</v>
+      </c>
+      <c r="G65">
+        <v>-0.03801635872846049</v>
+      </c>
+      <c r="H65">
+        <v>-0.07845176012883667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1407881984706647</v>
+        <v>-0.1556015940090944</v>
       </c>
       <c r="C66">
-        <v>-0.08035823265568522</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.0465678866583295</v>
+      </c>
+      <c r="D66">
+        <v>0.1120195797638963</v>
+      </c>
+      <c r="E66">
+        <v>-0.05232057389418959</v>
+      </c>
+      <c r="F66">
+        <v>-0.02147116582057938</v>
+      </c>
+      <c r="G66">
+        <v>-0.03009556239457933</v>
+      </c>
+      <c r="H66">
+        <v>0.1225240606995409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07149147057782872</v>
+        <v>-0.08114709765973266</v>
       </c>
       <c r="C67">
-        <v>-0.01688500267834865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.005618337660143169</v>
+      </c>
+      <c r="D67">
+        <v>0.02940309408046531</v>
+      </c>
+      <c r="E67">
+        <v>0.02994583929981508</v>
+      </c>
+      <c r="F67">
+        <v>-0.01305093065051105</v>
+      </c>
+      <c r="G67">
+        <v>0.0006932816031724532</v>
+      </c>
+      <c r="H67">
+        <v>0.02042853656325754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05915280459759622</v>
+        <v>-0.06394777925840942</v>
       </c>
       <c r="C68">
-        <v>-0.05063403355248455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05709127896528288</v>
+      </c>
+      <c r="D68">
+        <v>-0.2635116156653348</v>
+      </c>
+      <c r="E68">
+        <v>0.05025934810836542</v>
+      </c>
+      <c r="F68">
+        <v>-0.01456931766569807</v>
+      </c>
+      <c r="G68">
+        <v>0.01226828326742745</v>
+      </c>
+      <c r="H68">
+        <v>0.02078627418995785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05118354720077373</v>
+        <v>-0.05123722214145282</v>
       </c>
       <c r="C69">
-        <v>-0.0204789350132581</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.006053820430005913</v>
+      </c>
+      <c r="D69">
+        <v>0.02071363822804047</v>
+      </c>
+      <c r="E69">
+        <v>0.02671223260919035</v>
+      </c>
+      <c r="F69">
+        <v>0.004599376716154419</v>
+      </c>
+      <c r="G69">
+        <v>0.01011830307487292</v>
+      </c>
+      <c r="H69">
+        <v>0.05697192851306684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00484234866906683</v>
+        <v>-0.02476524600699942</v>
       </c>
       <c r="C70">
-        <v>0.00453260526106137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0002047374681432473</v>
+      </c>
+      <c r="D70">
+        <v>-0.000859077597836654</v>
+      </c>
+      <c r="E70">
+        <v>-0.02499881734434467</v>
+      </c>
+      <c r="F70">
+        <v>-0.01762190147323878</v>
+      </c>
+      <c r="G70">
+        <v>0.02265488438010759</v>
+      </c>
+      <c r="H70">
+        <v>-0.05740748080089576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0597973781595131</v>
+        <v>-0.06739548582598663</v>
       </c>
       <c r="C71">
-        <v>-0.04908637776183927</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05879651824832619</v>
+      </c>
+      <c r="D71">
+        <v>-0.2916031152885081</v>
+      </c>
+      <c r="E71">
+        <v>0.04505298404668073</v>
+      </c>
+      <c r="F71">
+        <v>-0.0442413245691405</v>
+      </c>
+      <c r="G71">
+        <v>0.005675249203531705</v>
+      </c>
+      <c r="H71">
+        <v>0.01460128571438473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1398149101120078</v>
+        <v>-0.153621738783435</v>
       </c>
       <c r="C72">
-        <v>-0.06534500364626177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03860113622228967</v>
+      </c>
+      <c r="D72">
+        <v>-0.004608865081739214</v>
+      </c>
+      <c r="E72">
+        <v>-0.08966541292596179</v>
+      </c>
+      <c r="F72">
+        <v>0.1714174684504444</v>
+      </c>
+      <c r="G72">
+        <v>-0.1116001391448938</v>
+      </c>
+      <c r="H72">
+        <v>0.0161594218491732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2629458927143244</v>
+        <v>-0.2840452255655483</v>
       </c>
       <c r="C73">
-        <v>-0.1192618347614966</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05850935269276406</v>
+      </c>
+      <c r="D73">
+        <v>0.09281664653138083</v>
+      </c>
+      <c r="E73">
+        <v>-0.2009397180375265</v>
+      </c>
+      <c r="F73">
+        <v>-0.08156197000735338</v>
+      </c>
+      <c r="G73">
+        <v>0.219690392996639</v>
+      </c>
+      <c r="H73">
+        <v>-0.5368372053928407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07794254679904487</v>
+        <v>-0.09066258691003418</v>
       </c>
       <c r="C74">
-        <v>-0.07912634884250273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06028757731557136</v>
+      </c>
+      <c r="D74">
+        <v>0.03044759520260003</v>
+      </c>
+      <c r="E74">
+        <v>-0.005583738886922392</v>
+      </c>
+      <c r="F74">
+        <v>0.01261241164659626</v>
+      </c>
+      <c r="G74">
+        <v>0.03105234484248913</v>
+      </c>
+      <c r="H74">
+        <v>0.1263991930978001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0948391284811773</v>
+        <v>-0.102332673863463</v>
       </c>
       <c r="C75">
-        <v>-0.05251399265507978</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02754577922660288</v>
+      </c>
+      <c r="D75">
+        <v>0.01329385247068362</v>
+      </c>
+      <c r="E75">
+        <v>0.003052434604767844</v>
+      </c>
+      <c r="F75">
+        <v>-0.04408200567443326</v>
+      </c>
+      <c r="G75">
+        <v>0.01277749886929197</v>
+      </c>
+      <c r="H75">
+        <v>0.1219130014120103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1265826825045319</v>
+        <v>-0.1370094862837701</v>
       </c>
       <c r="C76">
-        <v>-0.08639514940922477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05611586352776288</v>
+      </c>
+      <c r="D76">
+        <v>0.05562398805161095</v>
+      </c>
+      <c r="E76">
+        <v>0.01449520947336466</v>
+      </c>
+      <c r="F76">
+        <v>-0.05625489139524011</v>
+      </c>
+      <c r="G76">
+        <v>-0.003059167766585137</v>
+      </c>
+      <c r="H76">
+        <v>0.1610436736527056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1233829920978613</v>
+        <v>-0.1152644525888833</v>
       </c>
       <c r="C77">
-        <v>-0.03893983761664766</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.00366994306959618</v>
+      </c>
+      <c r="D77">
+        <v>0.02354572785448443</v>
+      </c>
+      <c r="E77">
+        <v>-0.04104206116919282</v>
+      </c>
+      <c r="F77">
+        <v>-0.2074420541549994</v>
+      </c>
+      <c r="G77">
+        <v>-0.8766193721960892</v>
+      </c>
+      <c r="H77">
+        <v>-0.2091065348444336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09219428697081379</v>
+        <v>-0.1251039985376471</v>
       </c>
       <c r="C78">
-        <v>-0.04299640025006462</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03164434031367376</v>
+      </c>
+      <c r="D78">
+        <v>0.09345002667922761</v>
+      </c>
+      <c r="E78">
+        <v>0.06041335694788941</v>
+      </c>
+      <c r="F78">
+        <v>-0.02070808986714558</v>
+      </c>
+      <c r="G78">
+        <v>-0.03887654389018291</v>
+      </c>
+      <c r="H78">
+        <v>-0.09575448315545575</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1445663856847802</v>
+        <v>-0.1515093318904674</v>
       </c>
       <c r="C79">
-        <v>-0.08766090286547869</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05020331649514462</v>
+      </c>
+      <c r="D79">
+        <v>0.0307730034540405</v>
+      </c>
+      <c r="E79">
+        <v>-0.02135583215296518</v>
+      </c>
+      <c r="F79">
+        <v>-0.01283875227965086</v>
+      </c>
+      <c r="G79">
+        <v>0.01507121653735426</v>
+      </c>
+      <c r="H79">
+        <v>0.1639412291749286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04218303473383903</v>
+        <v>-0.04249842639303196</v>
       </c>
       <c r="C80">
-        <v>-0.01606145059377352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005756684389906678</v>
+      </c>
+      <c r="D80">
+        <v>0.02642577781374006</v>
+      </c>
+      <c r="E80">
+        <v>-0.004638642998506347</v>
+      </c>
+      <c r="F80">
+        <v>0.01531814981608358</v>
+      </c>
+      <c r="G80">
+        <v>0.03803360613248524</v>
+      </c>
+      <c r="H80">
+        <v>0.03609449958021941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1183029831284638</v>
+        <v>-0.1207979914870744</v>
       </c>
       <c r="C81">
-        <v>-0.0663086403490819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0347073877993376</v>
+      </c>
+      <c r="D81">
+        <v>0.02729658727475121</v>
+      </c>
+      <c r="E81">
+        <v>0.004897126349211849</v>
+      </c>
+      <c r="F81">
+        <v>-0.02165738519884139</v>
+      </c>
+      <c r="G81">
+        <v>0.04158601297837084</v>
+      </c>
+      <c r="H81">
+        <v>0.1851188008173552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1256738932914366</v>
+        <v>-0.1300459728740843</v>
       </c>
       <c r="C82">
-        <v>-0.07457357430576952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04510972773412676</v>
+      </c>
+      <c r="D82">
+        <v>0.03242194508181609</v>
+      </c>
+      <c r="E82">
+        <v>-0.01546085177542306</v>
+      </c>
+      <c r="F82">
+        <v>-0.05536464392625179</v>
+      </c>
+      <c r="G82">
+        <v>0.04557254345531727</v>
+      </c>
+      <c r="H82">
+        <v>0.1864594730102877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07705614704476246</v>
+        <v>-0.08005097475555942</v>
       </c>
       <c r="C83">
-        <v>-0.001356313794771271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01782849889733695</v>
+      </c>
+      <c r="D83">
+        <v>0.0388934169969772</v>
+      </c>
+      <c r="E83">
+        <v>0.01248587696364022</v>
+      </c>
+      <c r="F83">
+        <v>-0.05070499386500606</v>
+      </c>
+      <c r="G83">
+        <v>0.08057667592727115</v>
+      </c>
+      <c r="H83">
+        <v>-0.04935862588197331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02762497234907711</v>
+        <v>-0.03994822334609833</v>
       </c>
       <c r="C84">
-        <v>-0.02361564461612307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01918701556185318</v>
+      </c>
+      <c r="D84">
+        <v>0.03790356008336738</v>
+      </c>
+      <c r="E84">
+        <v>0.02333183382420164</v>
+      </c>
+      <c r="F84">
+        <v>0.04851424210299835</v>
+      </c>
+      <c r="G84">
+        <v>0.06115851164995142</v>
+      </c>
+      <c r="H84">
+        <v>0.01971998024531404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1205614800609602</v>
+        <v>-0.1211556798719874</v>
       </c>
       <c r="C85">
-        <v>-0.06433946739372501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03211142371621771</v>
+      </c>
+      <c r="D85">
+        <v>0.03008118057914902</v>
+      </c>
+      <c r="E85">
+        <v>0.005326679790871734</v>
+      </c>
+      <c r="F85">
+        <v>-0.05114004595660364</v>
+      </c>
+      <c r="G85">
+        <v>0.01095792757525716</v>
+      </c>
+      <c r="H85">
+        <v>0.1543971727116299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04981188033910591</v>
+        <v>-0.05485765518996082</v>
       </c>
       <c r="C86">
-        <v>-0.03008415121660747</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01762216693225614</v>
+      </c>
+      <c r="D86">
+        <v>0.02674492026472886</v>
+      </c>
+      <c r="E86">
+        <v>0.05109470065208544</v>
+      </c>
+      <c r="F86">
+        <v>-0.02356748469223072</v>
+      </c>
+      <c r="G86">
+        <v>0.008837242930467568</v>
+      </c>
+      <c r="H86">
+        <v>0.01283163432505702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1203148727398393</v>
+        <v>-0.1201431309311936</v>
       </c>
       <c r="C87">
-        <v>-0.07428690767179486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03706379680173638</v>
+      </c>
+      <c r="D87">
+        <v>0.07318882412347236</v>
+      </c>
+      <c r="E87">
+        <v>0.01221515012795455</v>
+      </c>
+      <c r="F87">
+        <v>-0.01067121672910474</v>
+      </c>
+      <c r="G87">
+        <v>-0.1062042438092932</v>
+      </c>
+      <c r="H87">
+        <v>-0.01153643428022218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05377433384619469</v>
+        <v>-0.05951732811640445</v>
       </c>
       <c r="C88">
-        <v>-0.03171592493802713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.0200332988165371</v>
+      </c>
+      <c r="D88">
+        <v>0.02660827323456214</v>
+      </c>
+      <c r="E88">
+        <v>0.01477651666304129</v>
+      </c>
+      <c r="F88">
+        <v>-0.007473619956699333</v>
+      </c>
+      <c r="G88">
+        <v>-0.01242084932316331</v>
+      </c>
+      <c r="H88">
+        <v>0.05731359509928572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08442761753115602</v>
+        <v>-0.1018326401470915</v>
       </c>
       <c r="C89">
-        <v>-0.06519534115019567</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07786873413224624</v>
+      </c>
+      <c r="D89">
+        <v>-0.3301995467407661</v>
+      </c>
+      <c r="E89">
+        <v>0.08030478872285549</v>
+      </c>
+      <c r="F89">
+        <v>-0.0821398617264362</v>
+      </c>
+      <c r="G89">
+        <v>0.02231952318717018</v>
+      </c>
+      <c r="H89">
+        <v>-0.0003169704269034826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07238346757702854</v>
+        <v>-0.08380234402438898</v>
       </c>
       <c r="C90">
-        <v>-0.05815590354447348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06715230423611152</v>
+      </c>
+      <c r="D90">
+        <v>-0.303123395682483</v>
+      </c>
+      <c r="E90">
+        <v>0.06703140602103405</v>
+      </c>
+      <c r="F90">
+        <v>-0.009977657250854716</v>
+      </c>
+      <c r="G90">
+        <v>0.002649960148321983</v>
+      </c>
+      <c r="H90">
+        <v>0.01077687464691588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08297084738925593</v>
+        <v>-0.08792132448115851</v>
       </c>
       <c r="C91">
-        <v>-0.05574588900471645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03320829309754449</v>
+      </c>
+      <c r="D91">
+        <v>0.0331568673309948</v>
+      </c>
+      <c r="E91">
+        <v>0.01384576269188374</v>
+      </c>
+      <c r="F91">
+        <v>-0.006604991948334237</v>
+      </c>
+      <c r="G91">
+        <v>0.04632392068593109</v>
+      </c>
+      <c r="H91">
+        <v>0.07659371752636882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07924904459569045</v>
+        <v>-0.09208839033531693</v>
       </c>
       <c r="C92">
-        <v>-0.07728030314620632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08691609336098434</v>
+      </c>
+      <c r="D92">
+        <v>-0.3377992925543764</v>
+      </c>
+      <c r="E92">
+        <v>0.05626198335228409</v>
+      </c>
+      <c r="F92">
+        <v>-0.03999644274043554</v>
+      </c>
+      <c r="G92">
+        <v>-0.005043553150708979</v>
+      </c>
+      <c r="H92">
+        <v>0.01359383735681084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0665579718800995</v>
+        <v>-0.08352263268658917</v>
       </c>
       <c r="C93">
-        <v>-0.06389567762206633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07731290052321707</v>
+      </c>
+      <c r="D93">
+        <v>-0.3021543824101849</v>
+      </c>
+      <c r="E93">
+        <v>0.03829779689987129</v>
+      </c>
+      <c r="F93">
+        <v>-0.04996528112941954</v>
+      </c>
+      <c r="G93">
+        <v>-0.006452862464806393</v>
+      </c>
+      <c r="H93">
+        <v>-0.003166101603591205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.13069780159884</v>
+        <v>-0.127863059825507</v>
       </c>
       <c r="C94">
-        <v>-0.05967109752630006</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02163410751825493</v>
+      </c>
+      <c r="D94">
+        <v>0.04818616645062124</v>
+      </c>
+      <c r="E94">
+        <v>-0.02098891057548069</v>
+      </c>
+      <c r="F94">
+        <v>-0.02386416998808953</v>
+      </c>
+      <c r="G94">
+        <v>0.04029612983589938</v>
+      </c>
+      <c r="H94">
+        <v>0.1082795668089742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1183151951268476</v>
+        <v>-0.1258146185497844</v>
       </c>
       <c r="C95">
-        <v>-0.03972627182959124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.0103621072257893</v>
+      </c>
+      <c r="D95">
+        <v>0.05763065813800349</v>
+      </c>
+      <c r="E95">
+        <v>-0.005186700511922561</v>
+      </c>
+      <c r="F95">
+        <v>-0.03894488301112835</v>
+      </c>
+      <c r="G95">
+        <v>0.008777358709543003</v>
+      </c>
+      <c r="H95">
+        <v>-0.01961387220227188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2052376599725676</v>
+        <v>-0.2168280230536717</v>
       </c>
       <c r="C97">
-        <v>-0.04767299933362187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01047555149839998</v>
+      </c>
+      <c r="D97">
+        <v>-0.07607475832321299</v>
+      </c>
+      <c r="E97">
+        <v>-0.1564233240004248</v>
+      </c>
+      <c r="F97">
+        <v>0.9005234146372579</v>
+      </c>
+      <c r="G97">
+        <v>-0.144078644244704</v>
+      </c>
+      <c r="H97">
+        <v>-0.01492389016866022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2472949366330695</v>
+        <v>-0.2738994010500174</v>
       </c>
       <c r="C98">
-        <v>-0.0879796267722836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03963813627720262</v>
+      </c>
+      <c r="D98">
+        <v>0.06133209072050786</v>
+      </c>
+      <c r="E98">
+        <v>-0.1461783905398429</v>
+      </c>
+      <c r="F98">
+        <v>-0.04889372195173877</v>
+      </c>
+      <c r="G98">
+        <v>0.2815976651623421</v>
+      </c>
+      <c r="H98">
+        <v>-0.2232694758340871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4719176614047207</v>
+        <v>-0.2929691606007673</v>
       </c>
       <c r="C99">
-        <v>0.8671990438292637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9351114991684885</v>
+      </c>
+      <c r="D99">
+        <v>-0.1237319542992819</v>
+      </c>
+      <c r="E99">
+        <v>0.0504383668365985</v>
+      </c>
+      <c r="F99">
+        <v>-0.05023180921517569</v>
+      </c>
+      <c r="G99">
+        <v>0.01229738565680353</v>
+      </c>
+      <c r="H99">
+        <v>0.05654295016401652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04059833616907761</v>
+        <v>-0.04726701135519609</v>
       </c>
       <c r="C101">
-        <v>-0.03097727073280154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02420247154082027</v>
+      </c>
+      <c r="D101">
+        <v>0.007656095174493207</v>
+      </c>
+      <c r="E101">
+        <v>0.04577655402870937</v>
+      </c>
+      <c r="F101">
+        <v>-0.007749208657546543</v>
+      </c>
+      <c r="G101">
+        <v>0.0005192858336673112</v>
+      </c>
+      <c r="H101">
+        <v>0.08758501522556848</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
